--- a/Timesheets/Semester2/Week08_2021-03-08/joel-courtney.xlsx
+++ b/Timesheets/Semester2/Week08_2021-03-08/joel-courtney.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10314"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joel/repos/4308_NASA/Timesheets/Semester2/Week06_2021-02-22/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joel/repos/4308_NASA/Timesheets/Semester2/Week08_2021-03-08/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF657F2E-3458-1848-9E70-C9CDB4F56FEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8674F667-F3B9-C740-AB42-BC8F7B7B8AC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="25600" windowHeight="15380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="3700" windowWidth="25600" windowHeight="15380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -505,7 +505,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -616,9 +616,7 @@
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
-        <v>1.5</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -627,7 +625,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="5">
         <f t="shared" ref="I6:I12" si="1">SUM(B6:H6)</f>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2"/>
     </row>
@@ -694,14 +692,14 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H10" s="4">
         <v>2</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J10" s="2"/>
     </row>
@@ -756,7 +754,7 @@
       </c>
       <c r="B14" s="5">
         <f>SUM(B6:B13)</f>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" ref="C14:H14" si="4">SUM(C6:C13)</f>
@@ -776,7 +774,7 @@
       </c>
       <c r="G14" s="5">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="4"/>
@@ -784,7 +782,7 @@
       </c>
       <c r="I14" s="5">
         <f>SUM(I6:I13)</f>
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="J14" s="6"/>
     </row>
